--- a/docs/Bills.xlsx
+++ b/docs/Bills.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisaf\Desktop\lace-repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisaf\Desktop\lace-repo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D95F210B-D07B-46E3-A435-10609D4039BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{215E47B4-E0E3-4FE8-B57A-5FF0DF2BF439}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="13" activeTab="25" xr2:uid="{8786488E-61F2-4AF7-920A-7CF431129ADC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" firstSheet="15" activeTab="26" xr2:uid="{8786488E-61F2-4AF7-920A-7CF431129ADC}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill 1 " sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="213">
   <si>
     <t>Member</t>
   </si>
@@ -442,15 +442,6 @@
     <t>Hunter, Mitzi</t>
   </si>
   <si>
-    <t xml:space="preserve">Time Allocation </t>
-  </si>
-  <si>
-    <t>Motion carried - 68-41</t>
-  </si>
-  <si>
-    <t>Second Reading</t>
-  </si>
-  <si>
     <t>Yurek, Jeff</t>
   </si>
   <si>
@@ -460,22 +451,10 @@
     <t>Bill 2 , Urgent Priorities Act, 2018</t>
   </si>
   <si>
-    <t>Todd Smith</t>
-  </si>
-  <si>
     <t>Hon. Greg Rickford</t>
   </si>
   <si>
-    <t>Third Reading</t>
-  </si>
-  <si>
     <t>Hon Greg Rickford</t>
-  </si>
-  <si>
-    <t>Motion carried - 69-44</t>
-  </si>
-  <si>
-    <t>Motion Carried 70-40</t>
   </si>
   <si>
     <t>Fraser, John</t>
@@ -502,9 +481,6 @@
     <t>Hon Rod Philips</t>
   </si>
   <si>
-    <t>First Reading</t>
-  </si>
-  <si>
     <t>Bill 5, Better Local Government Act, 2018</t>
   </si>
   <si>
@@ -527,18 +503,6 @@
   </si>
   <si>
     <t>Third Reading - August 14</t>
-  </si>
-  <si>
-    <t>Carried 70-38</t>
-  </si>
-  <si>
-    <t>Carried 68-40</t>
-  </si>
-  <si>
-    <t>71-39</t>
-  </si>
-  <si>
-    <t>Carried 60-40</t>
   </si>
   <si>
     <t>No Recorded Vote</t>
@@ -681,6 +645,66 @@
   <si>
     <t>Bill 26, Zebra Mussel Examination Act, 2018</t>
   </si>
+  <si>
+    <t>First Reading , August 7, 2018</t>
+  </si>
+  <si>
+    <t>Carried on Division 60-40</t>
+  </si>
+  <si>
+    <t>Carried on division 70-38</t>
+  </si>
+  <si>
+    <t>Carried on division 68-40</t>
+  </si>
+  <si>
+    <t>Carried on division 71-39</t>
+  </si>
+  <si>
+    <t>Bill 1, An Act to perpetuate an ancient parliamentary right</t>
+  </si>
+  <si>
+    <t>Hon. Doug Ford</t>
+  </si>
+  <si>
+    <t>First Reading, July 12, 2018</t>
+  </si>
+  <si>
+    <t>Bill 2, Urgent Priorities Act, 2018</t>
+  </si>
+  <si>
+    <t>First Reading, July 16, 2018</t>
+  </si>
+  <si>
+    <t>Second Reading, July 25, 2018</t>
+  </si>
+  <si>
+    <t>Third Reading, July 25, 2018</t>
+  </si>
+  <si>
+    <t>First Reading, July 18, 2018</t>
+  </si>
+  <si>
+    <t>Second Reading, July 26, 2018</t>
+  </si>
+  <si>
+    <t>First Reading, July 25, 2018</t>
+  </si>
+  <si>
+    <t>Speaker does not vote</t>
+  </si>
+  <si>
+    <t>Carried on division 69-44</t>
+  </si>
+  <si>
+    <t>Carried on division 70-40</t>
+  </si>
+  <si>
+    <t>Bill 27, Waterways Examination Act, 2018</t>
+  </si>
+  <si>
+    <t>Carried on division 18-0</t>
+  </si>
 </sst>
 </file>
 
@@ -724,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -734,6 +758,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1049,89 +1074,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2422C3-1300-4D76-B6A7-E819AE4D5436}">
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="3" width="53.5546875" customWidth="1"/>
-    <col min="4" max="6" width="35.88671875" customWidth="1"/>
+    <col min="4" max="5" width="35.88671875" customWidth="1"/>
+    <col min="6" max="8" width="50.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1453,7 +1495,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
@@ -1663,17 +1705,17 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
@@ -1683,12 +1725,12 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1744,7 @@
   <dimension ref="A1:B166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1713,22 +1755,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>43312</v>
+      <c r="B4" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
@@ -2713,42 +2755,42 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C3" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3475,7 +3517,7 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3486,22 +3528,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
-        <v>43312</v>
+      <c r="B4" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -4696,27 +4738,27 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
-        <v>43312</v>
+      <c r="B5" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -5892,22 +5934,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>115</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>43319</v>
+      <c r="B4" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -6885,22 +6927,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
-        <v>43319</v>
+      <c r="B4" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -7662,22 +7704,22 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8529,22 +8571,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -9371,22 +9413,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -10376,22 +10418,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -11303,82 +11345,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F4F2C6-7865-4E37-8928-BE4A29A1CAD3}">
   <dimension ref="A1:E133"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="37.44140625" customWidth="1"/>
     <col min="3" max="4" width="43.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="C1" t="s">
         <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="3">
-        <v>43306</v>
-      </c>
-      <c r="C4" s="3">
-        <v>43306</v>
-      </c>
-      <c r="D4" s="3">
-        <v>43306</v>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
+      <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>117</v>
@@ -11392,15 +11422,18 @@
         <f>'Bill 1 '!A6</f>
         <v>Arnott, Hon. Ted</v>
       </c>
+      <c r="C8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>'Bill 1 '!A7</f>
         <v>Baber, Roman</v>
       </c>
-      <c r="B9" t="s">
-        <v>117</v>
-      </c>
       <c r="C9" t="s">
         <v>117</v>
       </c>
@@ -11413,9 +11446,6 @@
         <f>'Bill 1 '!A8</f>
         <v>Babikian, Aris</v>
       </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
       <c r="C10" t="s">
         <v>117</v>
       </c>
@@ -11428,9 +11458,6 @@
         <f>'Bill 1 '!A9</f>
         <v>Bailey, Bob</v>
       </c>
-      <c r="B11" t="s">
-        <v>117</v>
-      </c>
       <c r="C11" t="s">
         <v>117</v>
       </c>
@@ -11443,9 +11470,6 @@
         <f>'Bill 1 '!A10</f>
         <v>Barrett, Toby</v>
       </c>
-      <c r="B12" t="s">
-        <v>117</v>
-      </c>
       <c r="C12" t="s">
         <v>117</v>
       </c>
@@ -11458,9 +11482,6 @@
         <f>'Bill 1 '!A11</f>
         <v>Bethlenfalvy, Hon. Peter</v>
       </c>
-      <c r="B13" t="s">
-        <v>117</v>
-      </c>
       <c r="C13" t="s">
         <v>117</v>
       </c>
@@ -11473,9 +11494,6 @@
         <f>'Bill 1 '!A12</f>
         <v>Bouma, Will</v>
       </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
       <c r="C14" t="s">
         <v>117</v>
       </c>
@@ -11488,9 +11506,6 @@
         <f>'Bill 1 '!A13</f>
         <v>Calandra, Paul</v>
       </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
       <c r="C15" t="s">
         <v>117</v>
       </c>
@@ -11503,9 +11518,6 @@
         <f>'Bill 1 '!A14</f>
         <v>Cho, Hon. Raymond Sung Joon</v>
       </c>
-      <c r="B16" t="s">
-        <v>117</v>
-      </c>
       <c r="C16" t="s">
         <v>117</v>
       </c>
@@ -11518,9 +11530,6 @@
         <f>'Bill 1 '!A15</f>
         <v>Cho, Stan</v>
       </c>
-      <c r="B17" t="s">
-        <v>117</v>
-      </c>
       <c r="C17" t="s">
         <v>117</v>
       </c>
@@ -11533,8 +11542,8 @@
         <f>'Bill 1 '!A16</f>
         <v>Clark, Hon. Steve</v>
       </c>
-      <c r="B18" t="s">
-        <v>117</v>
+      <c r="C18" t="s">
+        <v>146</v>
       </c>
       <c r="D18" t="s">
         <v>117</v>
@@ -11545,9 +11554,6 @@
         <f>'Bill 1 '!A17</f>
         <v>Coe, Lorne</v>
       </c>
-      <c r="B19" t="s">
-        <v>117</v>
-      </c>
       <c r="C19" t="s">
         <v>117</v>
       </c>
@@ -11560,9 +11566,6 @@
         <f>'Bill 1 '!A18</f>
         <v>Crawford, Stephen</v>
       </c>
-      <c r="B20" t="s">
-        <v>117</v>
-      </c>
       <c r="C20" t="s">
         <v>117</v>
       </c>
@@ -11575,9 +11578,6 @@
         <f>'Bill 1 '!A19</f>
         <v>Cuzzetto, Rudy</v>
       </c>
-      <c r="B21" t="s">
-        <v>117</v>
-      </c>
       <c r="C21" t="s">
         <v>117</v>
       </c>
@@ -11590,9 +11590,6 @@
         <f>'Bill 1 '!A20</f>
         <v>Downey, Doug</v>
       </c>
-      <c r="B22" t="s">
-        <v>117</v>
-      </c>
       <c r="C22" t="s">
         <v>117</v>
       </c>
@@ -11605,9 +11602,6 @@
         <f>'Bill 1 '!A21</f>
         <v>Dunlop, Jill</v>
       </c>
-      <c r="B23" t="s">
-        <v>117</v>
-      </c>
       <c r="C23" t="s">
         <v>117</v>
       </c>
@@ -11620,9 +11614,6 @@
         <f>'Bill 1 '!A22</f>
         <v>Elliott, Hon. Christine</v>
       </c>
-      <c r="B24" t="s">
-        <v>117</v>
-      </c>
       <c r="C24" t="s">
         <v>117</v>
       </c>
@@ -11635,9 +11626,6 @@
         <f>'Bill 1 '!A23</f>
         <v>Fedeli, Hon. Victor</v>
       </c>
-      <c r="B25" t="s">
-        <v>117</v>
-      </c>
       <c r="C25" t="s">
         <v>117</v>
       </c>
@@ -11650,9 +11638,6 @@
         <f>'Bill 1 '!A24</f>
         <v>Fee, Amy</v>
       </c>
-      <c r="B26" t="s">
-        <v>117</v>
-      </c>
       <c r="C26" t="s">
         <v>117</v>
       </c>
@@ -11665,9 +11650,6 @@
         <f>'Bill 1 '!A25</f>
         <v>Ford, Hon. Doug</v>
       </c>
-      <c r="B27" t="s">
-        <v>117</v>
-      </c>
       <c r="C27" t="s">
         <v>117</v>
       </c>
@@ -11680,9 +11662,6 @@
         <f>'Bill 1 '!A26</f>
         <v>Fullerton, Hon. Merrilee</v>
       </c>
-      <c r="B28" t="s">
-        <v>117</v>
-      </c>
       <c r="C28" t="s">
         <v>117</v>
       </c>
@@ -11695,15 +11674,18 @@
         <f>'Bill 1 '!A27</f>
         <v>Ghamari, Goldie</v>
       </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="str">
         <f>'Bill 1 '!A28</f>
         <v>Gill, Parm</v>
       </c>
-      <c r="B30" t="s">
-        <v>117</v>
-      </c>
       <c r="C30" t="s">
         <v>117</v>
       </c>
@@ -11716,9 +11698,6 @@
         <f>'Bill 1 '!A29</f>
         <v>Hardeman, Hon. Ernie</v>
       </c>
-      <c r="B31" t="s">
-        <v>117</v>
-      </c>
       <c r="C31" t="s">
         <v>117</v>
       </c>
@@ -11731,9 +11710,6 @@
         <f>'Bill 1 '!A30</f>
         <v>Harris, Mike</v>
       </c>
-      <c r="B32" t="s">
-        <v>117</v>
-      </c>
       <c r="C32" t="s">
         <v>117</v>
       </c>
@@ -11746,15 +11722,18 @@
         <f>'Bill 1 '!A31</f>
         <v>Hillier, Randy</v>
       </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="str">
         <f>'Bill 1 '!A32</f>
         <v>Hogarth, Christine</v>
       </c>
-      <c r="B34" t="s">
-        <v>117</v>
-      </c>
       <c r="C34" t="s">
         <v>117</v>
       </c>
@@ -11767,9 +11746,6 @@
         <f>'Bill 1 '!A33</f>
         <v>Jones, Hon. Sylvia</v>
       </c>
-      <c r="B35" t="s">
-        <v>117</v>
-      </c>
       <c r="C35" t="s">
         <v>117</v>
       </c>
@@ -11782,9 +11758,6 @@
         <f>'Bill 1 '!A34</f>
         <v>Kanapathi, Logan</v>
       </c>
-      <c r="B36" t="s">
-        <v>117</v>
-      </c>
       <c r="C36" t="s">
         <v>117</v>
       </c>
@@ -11797,9 +11770,6 @@
         <f>'Bill 1 '!A35</f>
         <v>Karahalios, Belinda</v>
       </c>
-      <c r="B37" t="s">
-        <v>117</v>
-      </c>
       <c r="C37" t="s">
         <v>117</v>
       </c>
@@ -11812,9 +11782,6 @@
         <f>'Bill 1 '!A36</f>
         <v>Ke, Vincent</v>
       </c>
-      <c r="B38" t="s">
-        <v>117</v>
-      </c>
       <c r="C38" t="s">
         <v>117</v>
       </c>
@@ -11827,9 +11794,6 @@
         <f>'Bill 1 '!A37</f>
         <v>Khanjin, Andrea</v>
       </c>
-      <c r="B39" t="s">
-        <v>117</v>
-      </c>
       <c r="C39" t="s">
         <v>117</v>
       </c>
@@ -11842,9 +11806,6 @@
         <f>'Bill 1 '!A38</f>
         <v>Kramp, Daryl</v>
       </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
       <c r="C40" t="s">
         <v>117</v>
       </c>
@@ -11857,9 +11818,6 @@
         <f>'Bill 1 '!A39</f>
         <v>Kusendova, Natalia</v>
       </c>
-      <c r="B41" t="s">
-        <v>117</v>
-      </c>
       <c r="C41" t="s">
         <v>117</v>
       </c>
@@ -11872,9 +11830,6 @@
         <f>'Bill 1 '!A40</f>
         <v>Lecce, Stephen</v>
       </c>
-      <c r="B42" t="s">
-        <v>117</v>
-      </c>
       <c r="C42" t="s">
         <v>117</v>
       </c>
@@ -11899,9 +11854,6 @@
         <f>'Bill 1 '!A42</f>
         <v>Martin, Robin</v>
       </c>
-      <c r="B44" t="s">
-        <v>117</v>
-      </c>
       <c r="C44" t="s">
         <v>117</v>
       </c>
@@ -11914,9 +11866,6 @@
         <f>'Bill 1 '!A43</f>
         <v>Martow, Gila</v>
       </c>
-      <c r="B45" t="s">
-        <v>117</v>
-      </c>
       <c r="C45" t="s">
         <v>117</v>
       </c>
@@ -11929,9 +11878,6 @@
         <f>'Bill 1 '!A44</f>
         <v>McDonell, Jim</v>
       </c>
-      <c r="B46" t="s">
-        <v>117</v>
-      </c>
       <c r="C46" t="s">
         <v>117</v>
       </c>
@@ -11944,9 +11890,6 @@
         <f>'Bill 1 '!A45</f>
         <v>McKenna, Jane</v>
       </c>
-      <c r="B47" t="s">
-        <v>117</v>
-      </c>
       <c r="C47" t="s">
         <v>117</v>
       </c>
@@ -11959,9 +11902,6 @@
         <f>'Bill 1 '!A46</f>
         <v>McNaughton, Hon. Monte</v>
       </c>
-      <c r="B48" t="s">
-        <v>117</v>
-      </c>
       <c r="C48" t="s">
         <v>117</v>
       </c>
@@ -11974,9 +11914,6 @@
         <f>'Bill 1 '!A47</f>
         <v>Miller, Norman</v>
       </c>
-      <c r="B49" t="s">
-        <v>117</v>
-      </c>
       <c r="C49" t="s">
         <v>117</v>
       </c>
@@ -11989,9 +11926,6 @@
         <f>'Bill 1 '!A48</f>
         <v>Mitas, Christina Maria</v>
       </c>
-      <c r="B50" t="s">
-        <v>117</v>
-      </c>
       <c r="C50" t="s">
         <v>117</v>
       </c>
@@ -12004,9 +11938,6 @@
         <f>'Bill 1 '!A49</f>
         <v>Mulroney, Hon. Caroline</v>
       </c>
-      <c r="B51" t="s">
-        <v>117</v>
-      </c>
       <c r="C51" t="s">
         <v>117</v>
       </c>
@@ -12019,11 +11950,11 @@
         <f>'Bill 1 '!A50</f>
         <v>Nicholls, Rick</v>
       </c>
-      <c r="B52" t="s">
-        <v>117</v>
-      </c>
       <c r="C52" t="s">
         <v>117</v>
+      </c>
+      <c r="D52" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -12031,9 +11962,6 @@
         <f>'Bill 1 '!A51</f>
         <v>Oosterhoff, Sam</v>
       </c>
-      <c r="B53" t="s">
-        <v>117</v>
-      </c>
       <c r="C53" t="s">
         <v>117</v>
       </c>
@@ -12046,9 +11974,6 @@
         <f>'Bill 1 '!A52</f>
         <v>Pang, Billy</v>
       </c>
-      <c r="B54" t="s">
-        <v>117</v>
-      </c>
       <c r="C54" t="s">
         <v>117</v>
       </c>
@@ -12061,9 +11986,6 @@
         <f>'Bill 1 '!A53</f>
         <v>Park, Lindsey</v>
       </c>
-      <c r="B55" t="s">
-        <v>117</v>
-      </c>
       <c r="C55" t="s">
         <v>117</v>
       </c>
@@ -12076,9 +11998,6 @@
         <f>'Bill 1 '!A54</f>
         <v>Parsa, Michael</v>
       </c>
-      <c r="B56" t="s">
-        <v>117</v>
-      </c>
       <c r="C56" t="s">
         <v>117</v>
       </c>
@@ -12091,15 +12010,18 @@
         <f>'Bill 1 '!A55</f>
         <v>Pettapiece, Randy</v>
       </c>
+      <c r="C57" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="str">
         <f>'Bill 1 '!A56</f>
         <v>Phillips, Hon. Rod</v>
       </c>
-      <c r="B58" t="s">
-        <v>117</v>
-      </c>
       <c r="C58" t="s">
         <v>117</v>
       </c>
@@ -12112,9 +12034,6 @@
         <f>'Bill 1 '!A57</f>
         <v>Piccini, David</v>
       </c>
-      <c r="B59" t="s">
-        <v>117</v>
-      </c>
       <c r="C59" t="s">
         <v>117</v>
       </c>
@@ -12127,9 +12046,6 @@
         <f>'Bill 1 '!A58</f>
         <v>Rasheed, Kaleed</v>
       </c>
-      <c r="B60" t="s">
-        <v>117</v>
-      </c>
       <c r="C60" t="s">
         <v>117</v>
       </c>
@@ -12142,9 +12058,6 @@
         <f>'Bill 1 '!A59</f>
         <v>Rickford, Hon. Greg</v>
       </c>
-      <c r="B61" t="s">
-        <v>117</v>
-      </c>
       <c r="C61" t="s">
         <v>117</v>
       </c>
@@ -12169,9 +12082,6 @@
         <f>'Bill 1 '!A61</f>
         <v>Romano, Ross</v>
       </c>
-      <c r="B63" t="s">
-        <v>117</v>
-      </c>
       <c r="C63" t="s">
         <v>117</v>
       </c>
@@ -12184,8 +12094,8 @@
         <f>'Bill 1 '!A62</f>
         <v>Sabawy, Sheref</v>
       </c>
-      <c r="B64" t="s">
-        <v>117</v>
+      <c r="C64" t="s">
+        <v>146</v>
       </c>
       <c r="D64" t="s">
         <v>117</v>
@@ -12196,9 +12106,6 @@
         <f>'Bill 1 '!A63</f>
         <v>Sandhu, Amarjot</v>
       </c>
-      <c r="B65" t="s">
-        <v>117</v>
-      </c>
       <c r="C65" t="s">
         <v>117</v>
       </c>
@@ -12211,9 +12118,6 @@
         <f>'Bill 1 '!A64</f>
         <v>Sarkaria, Prabmeet Singh</v>
       </c>
-      <c r="B66" t="s">
-        <v>117</v>
-      </c>
       <c r="C66" t="s">
         <v>117</v>
       </c>
@@ -12226,9 +12130,6 @@
         <f>'Bill 1 '!A65</f>
         <v>Scott, Hon. Laurie</v>
       </c>
-      <c r="B67" t="s">
-        <v>117</v>
-      </c>
       <c r="C67" t="s">
         <v>117</v>
       </c>
@@ -12241,9 +12142,6 @@
         <f>'Bill 1 '!A66</f>
         <v>Simard, Amanda</v>
       </c>
-      <c r="B68" t="s">
-        <v>117</v>
-      </c>
       <c r="C68" t="s">
         <v>117</v>
       </c>
@@ -12256,9 +12154,6 @@
         <f>'Bill 1 '!A67</f>
         <v>Skelly, Donna</v>
       </c>
-      <c r="B69" t="s">
-        <v>117</v>
-      </c>
       <c r="C69" t="s">
         <v>117</v>
       </c>
@@ -12271,9 +12166,6 @@
         <f>'Bill 1 '!A68</f>
         <v>Smith, Dave</v>
       </c>
-      <c r="B70" t="s">
-        <v>117</v>
-      </c>
       <c r="C70" t="s">
         <v>117</v>
       </c>
@@ -12286,9 +12178,6 @@
         <f>'Bill 1 '!A69</f>
         <v>Smith, Hon. Todd</v>
       </c>
-      <c r="B71" t="s">
-        <v>117</v>
-      </c>
       <c r="C71" t="s">
         <v>117</v>
       </c>
@@ -12313,9 +12202,6 @@
         <f>'Bill 1 '!A71</f>
         <v>Tangri, Nina</v>
       </c>
-      <c r="B73" t="s">
-        <v>117</v>
-      </c>
       <c r="C73" t="s">
         <v>117</v>
       </c>
@@ -12328,9 +12214,6 @@
         <f>'Bill 1 '!A72</f>
         <v>Thanigasalam, Vijay</v>
       </c>
-      <c r="B74" t="s">
-        <v>117</v>
-      </c>
       <c r="C74" t="s">
         <v>117</v>
       </c>
@@ -12343,15 +12226,18 @@
         <f>'Bill 1 '!A73</f>
         <v>Thompson, Hon. Lisa M.</v>
       </c>
+      <c r="C75" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="str">
         <f>'Bill 1 '!A74</f>
         <v>Tibollo, Hon. Michael A</v>
       </c>
-      <c r="B76" t="s">
-        <v>117</v>
-      </c>
       <c r="C76" t="s">
         <v>117</v>
       </c>
@@ -12364,9 +12250,6 @@
         <f>'Bill 1 '!A75</f>
         <v>Triantafilopoulos, Effie J.</v>
       </c>
-      <c r="B77" t="s">
-        <v>117</v>
-      </c>
       <c r="C77" t="s">
         <v>117</v>
       </c>
@@ -12379,9 +12262,6 @@
         <f>'Bill 1 '!A76</f>
         <v>Wai, Daisy</v>
       </c>
-      <c r="B78" t="s">
-        <v>117</v>
-      </c>
       <c r="C78" t="s">
         <v>117</v>
       </c>
@@ -12394,9 +12274,6 @@
         <f>'Bill 1 '!A77</f>
         <v>Walker, Bill</v>
       </c>
-      <c r="B79" t="s">
-        <v>117</v>
-      </c>
       <c r="C79" t="s">
         <v>117</v>
       </c>
@@ -12409,9 +12286,6 @@
         <f>'Bill 1 '!A78</f>
         <v>Wilson, Jim</v>
       </c>
-      <c r="B80" t="s">
-        <v>117</v>
-      </c>
       <c r="C80" t="s">
         <v>117</v>
       </c>
@@ -12424,9 +12298,6 @@
         <f>'Bill 1 '!A79</f>
         <v>Yakabuski, John</v>
       </c>
-      <c r="B81" t="s">
-        <v>117</v>
-      </c>
       <c r="C81" t="s">
         <v>117</v>
       </c>
@@ -12439,9 +12310,6 @@
         <f>'Bill 1 '!A80</f>
         <v>Yurek, Jeff</v>
       </c>
-      <c r="B82" t="s">
-        <v>117</v>
-      </c>
       <c r="C82" t="s">
         <v>117</v>
       </c>
@@ -12460,8 +12328,11 @@
         <f>'Bill 1 '!A82</f>
         <v>Andrew, Jill</v>
       </c>
-      <c r="B84" t="s">
-        <v>121</v>
+      <c r="C84" t="s">
+        <v>146</v>
+      </c>
+      <c r="D84" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
@@ -12481,9 +12352,6 @@
         <f>'Bill 1 '!A84</f>
         <v>Arthur, Ian</v>
       </c>
-      <c r="B86" t="s">
-        <v>121</v>
-      </c>
       <c r="C86" t="s">
         <v>121</v>
       </c>
@@ -12496,9 +12364,6 @@
         <f>'Bill 1 '!A85</f>
         <v>Begum, Doly</v>
       </c>
-      <c r="B87" t="s">
-        <v>121</v>
-      </c>
       <c r="C87" t="s">
         <v>121</v>
       </c>
@@ -12511,9 +12376,6 @@
         <f>'Bill 1 '!A86</f>
         <v>Bell, Jessica</v>
       </c>
-      <c r="B88" t="s">
-        <v>121</v>
-      </c>
       <c r="C88" t="s">
         <v>121</v>
       </c>
@@ -12526,9 +12388,6 @@
         <f>'Bill 1 '!A87</f>
         <v>Berns-McGown, Rima</v>
       </c>
-      <c r="B89" t="s">
-        <v>121</v>
-      </c>
       <c r="C89" t="s">
         <v>121</v>
       </c>
@@ -12541,9 +12400,6 @@
         <f>'Bill 1 '!A88</f>
         <v>Bisson, Gilles</v>
       </c>
-      <c r="B90" t="s">
-        <v>121</v>
-      </c>
       <c r="C90" t="s">
         <v>121</v>
       </c>
@@ -12556,9 +12412,6 @@
         <f>'Bill 1 '!A89</f>
         <v>Bourgouin, Guy</v>
       </c>
-      <c r="B91" t="s">
-        <v>121</v>
-      </c>
       <c r="C91" t="s">
         <v>121</v>
       </c>
@@ -12574,9 +12427,6 @@
         <f>'Bill 1 '!A90</f>
         <v>Burch, Jeff</v>
       </c>
-      <c r="B92" t="s">
-        <v>121</v>
-      </c>
       <c r="C92" t="s">
         <v>121</v>
       </c>
@@ -12601,9 +12451,6 @@
         <f>'Bill 1 '!A92</f>
         <v>French, Jennifer K.</v>
       </c>
-      <c r="B94" t="s">
-        <v>121</v>
-      </c>
       <c r="C94" t="s">
         <v>121</v>
       </c>
@@ -12616,9 +12463,6 @@
         <f>'Bill 1 '!A93</f>
         <v>Gates, Wayne</v>
       </c>
-      <c r="B95" t="s">
-        <v>121</v>
-      </c>
       <c r="C95" t="s">
         <v>121</v>
       </c>
@@ -12643,9 +12487,6 @@
         <f>'Bill 1 '!A95</f>
         <v>Glover, Chris</v>
       </c>
-      <c r="B97" t="s">
-        <v>121</v>
-      </c>
       <c r="C97" t="s">
         <v>121</v>
       </c>
@@ -12658,15 +12499,18 @@
         <f>'Bill 1 '!A96</f>
         <v>Gretzky, Lisa</v>
       </c>
+      <c r="C98" t="s">
+        <v>146</v>
+      </c>
+      <c r="D98" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="str">
         <f>'Bill 1 '!A97</f>
         <v>Harden, Joel</v>
       </c>
-      <c r="B99" t="s">
-        <v>121</v>
-      </c>
       <c r="C99" t="s">
         <v>121</v>
       </c>
@@ -12679,9 +12523,6 @@
         <f>'Bill 1 '!A98</f>
         <v>Hassan, Faisal</v>
       </c>
-      <c r="B100" t="s">
-        <v>121</v>
-      </c>
       <c r="C100" t="s">
         <v>121</v>
       </c>
@@ -12694,9 +12535,6 @@
         <f>'Bill 1 '!A99</f>
         <v>Hatfield, Percy</v>
       </c>
-      <c r="B101" t="s">
-        <v>121</v>
-      </c>
       <c r="C101" t="s">
         <v>121</v>
       </c>
@@ -12709,9 +12547,6 @@
         <f>'Bill 1 '!A100</f>
         <v>Horwath, Andrea</v>
       </c>
-      <c r="B102" t="s">
-        <v>121</v>
-      </c>
       <c r="C102" t="s">
         <v>121</v>
       </c>
@@ -12724,9 +12559,6 @@
         <f>'Bill 1 '!A101</f>
         <v>Karpoche, Bhutila</v>
       </c>
-      <c r="B103" t="s">
-        <v>121</v>
-      </c>
       <c r="C103" t="s">
         <v>121</v>
       </c>
@@ -12739,9 +12571,6 @@
         <f>'Bill 1 '!A102</f>
         <v>Kernaghan, Terence</v>
       </c>
-      <c r="B104" t="s">
-        <v>121</v>
-      </c>
       <c r="C104" t="s">
         <v>121</v>
       </c>
@@ -12754,9 +12583,6 @@
         <f>'Bill 1 '!A103</f>
         <v>Lindo, Laura Mae</v>
       </c>
-      <c r="B105" t="s">
-        <v>121</v>
-      </c>
       <c r="C105" t="s">
         <v>121</v>
       </c>
@@ -12769,9 +12595,6 @@
         <f>'Bill 1 '!A104</f>
         <v>Mamakwa, Sol</v>
       </c>
-      <c r="B106" t="s">
-        <v>121</v>
-      </c>
       <c r="C106" t="s">
         <v>121</v>
       </c>
@@ -12784,9 +12607,6 @@
         <f>'Bill 1 '!A105</f>
         <v>Mantha, Michael</v>
       </c>
-      <c r="B107" t="s">
-        <v>121</v>
-      </c>
       <c r="C107" t="s">
         <v>121</v>
       </c>
@@ -12799,9 +12619,6 @@
         <f>'Bill 1 '!A106</f>
         <v>Monteith-Farrell, Judith</v>
       </c>
-      <c r="B108" t="s">
-        <v>121</v>
-      </c>
       <c r="C108" t="s">
         <v>121</v>
       </c>
@@ -12814,9 +12631,6 @@
         <f>'Bill 1 '!A107</f>
         <v>Morrison, Suze</v>
       </c>
-      <c r="B109" t="s">
-        <v>121</v>
-      </c>
       <c r="C109" t="s">
         <v>121</v>
       </c>
@@ -12829,9 +12643,6 @@
         <f>'Bill 1 '!A108</f>
         <v>Natyshak, Taras</v>
       </c>
-      <c r="B110" t="s">
-        <v>121</v>
-      </c>
       <c r="C110" t="s">
         <v>121</v>
       </c>
@@ -12844,9 +12655,6 @@
         <f>'Bill 1 '!A109</f>
         <v>Rakocevic, Tom</v>
       </c>
-      <c r="B111" t="s">
-        <v>121</v>
-      </c>
       <c r="C111" t="s">
         <v>121</v>
       </c>
@@ -12859,9 +12667,6 @@
         <f>'Bill 1 '!A110</f>
         <v>Sattler, Peggy</v>
       </c>
-      <c r="B112" t="s">
-        <v>121</v>
-      </c>
       <c r="C112" t="s">
         <v>121</v>
       </c>
@@ -12874,9 +12679,6 @@
         <f>'Bill 1 '!A111</f>
         <v>Shaw, Sandy</v>
       </c>
-      <c r="B113" t="s">
-        <v>121</v>
-      </c>
       <c r="C113" t="s">
         <v>121</v>
       </c>
@@ -12889,9 +12691,6 @@
         <f>'Bill 1 '!A112</f>
         <v>Singh, Gurratan</v>
       </c>
-      <c r="B114" t="s">
-        <v>121</v>
-      </c>
       <c r="C114" t="s">
         <v>121</v>
       </c>
@@ -12904,9 +12703,6 @@
         <f>'Bill 1 '!A113</f>
         <v>Singh, Sara</v>
       </c>
-      <c r="B115" t="s">
-        <v>121</v>
-      </c>
       <c r="C115" t="s">
         <v>121</v>
       </c>
@@ -12919,9 +12715,6 @@
         <f>'Bill 1 '!A114</f>
         <v>Stevens, Jennifer (Jennie)</v>
       </c>
-      <c r="B116" t="s">
-        <v>121</v>
-      </c>
       <c r="C116" t="s">
         <v>121</v>
       </c>
@@ -12934,9 +12727,6 @@
         <f>'Bill 1 '!A115</f>
         <v>Stiles, Marit</v>
       </c>
-      <c r="B117" t="s">
-        <v>121</v>
-      </c>
       <c r="C117" t="s">
         <v>121</v>
       </c>
@@ -12949,9 +12739,6 @@
         <f>'Bill 1 '!A116</f>
         <v>Tabuns, Peter</v>
       </c>
-      <c r="B118" t="s">
-        <v>121</v>
-      </c>
       <c r="C118" t="s">
         <v>121</v>
       </c>
@@ -12964,8 +12751,11 @@
         <f>'Bill 1 '!A117</f>
         <v>Taylor, Monique</v>
       </c>
-      <c r="B119" t="s">
-        <v>121</v>
+      <c r="C119" t="s">
+        <v>146</v>
+      </c>
+      <c r="D119" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -12973,9 +12763,6 @@
         <f>'Bill 1 '!A118</f>
         <v>Vanthof, John</v>
       </c>
-      <c r="B120" t="s">
-        <v>121</v>
-      </c>
       <c r="C120" t="s">
         <v>121</v>
       </c>
@@ -12988,9 +12775,6 @@
         <f>'Bill 1 '!A119</f>
         <v>West, Jamie</v>
       </c>
-      <c r="B121" t="s">
-        <v>121</v>
-      </c>
       <c r="C121" t="s">
         <v>121</v>
       </c>
@@ -13003,9 +12787,6 @@
         <f>'Bill 1 '!A120</f>
         <v>Yarde, Kevin</v>
       </c>
-      <c r="B122" t="s">
-        <v>121</v>
-      </c>
       <c r="C122" t="s">
         <v>121</v>
       </c>
@@ -13024,9 +12805,6 @@
         <f>'Bill 1 '!A122</f>
         <v>Schreiner, Mike</v>
       </c>
-      <c r="B124" t="s">
-        <v>121</v>
-      </c>
       <c r="C124" t="s">
         <v>121</v>
       </c>
@@ -13045,9 +12823,6 @@
         <f>'Bill 1 '!A124</f>
         <v>Coteau, Michael</v>
       </c>
-      <c r="B126" t="s">
-        <v>121</v>
-      </c>
       <c r="C126" t="s">
         <v>121</v>
       </c>
@@ -13060,9 +12835,6 @@
         <f>'Bill 1 '!A125</f>
         <v>Des Rosiers, Nathalie</v>
       </c>
-      <c r="B127" t="s">
-        <v>121</v>
-      </c>
       <c r="C127" t="s">
         <v>121</v>
       </c>
@@ -13075,9 +12847,6 @@
         <f>'Bill 1 '!A126</f>
         <v>Fraser, John</v>
       </c>
-      <c r="B128" t="s">
-        <v>121</v>
-      </c>
       <c r="C128" t="s">
         <v>121</v>
       </c>
@@ -13090,26 +12859,29 @@
         <f>'Bill 1 '!A127</f>
         <v>Gravelle, Michael</v>
       </c>
+      <c r="C129" t="s">
+        <v>146</v>
+      </c>
+      <c r="D129" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="str">
         <f>'Bill 1 '!A128</f>
         <v>Hunter, Mitzi</v>
       </c>
-      <c r="B130" t="s">
-        <v>121</v>
-      </c>
       <c r="C130" t="s">
         <v>121</v>
+      </c>
+      <c r="D130" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="str">
         <f>'Bill 1 '!A129</f>
         <v>Lalonde, Marie-France</v>
-      </c>
-      <c r="B131" t="s">
-        <v>121</v>
       </c>
       <c r="C131" t="s">
         <v>121</v>
@@ -13154,22 +12926,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -14015,22 +13787,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -14840,22 +14612,22 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -15779,22 +15551,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -16533,32 +16305,32 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -17386,22 +17158,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -18265,7 +18037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A570733-9F56-47A3-BBAF-3BBC1F805241}">
   <dimension ref="A1:B139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -18276,22 +18048,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -19093,12 +18865,1242 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B947C7-892E-4972-8369-FCBC7A231127}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B148"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="str">
+        <f>'Bill 1 '!A5</f>
+        <v>Anand, Deepak</v>
+      </c>
+      <c r="B6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="str">
+        <f>'Bill 1 '!A6</f>
+        <v>Arnott, Hon. Ted</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="str">
+        <f>'Bill 1 '!A7</f>
+        <v>Baber, Roman</v>
+      </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="str">
+        <f>'Bill 1 '!A8</f>
+        <v>Babikian, Aris</v>
+      </c>
+      <c r="B9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="str">
+        <f>'Bill 1 '!A9</f>
+        <v>Bailey, Bob</v>
+      </c>
+      <c r="B10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="str">
+        <f>'Bill 1 '!A10</f>
+        <v>Barrett, Toby</v>
+      </c>
+      <c r="B11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="str">
+        <f>'Bill 1 '!A11</f>
+        <v>Bethlenfalvy, Hon. Peter</v>
+      </c>
+      <c r="B12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="str">
+        <f>'Bill 1 '!A12</f>
+        <v>Bouma, Will</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="str">
+        <f>'Bill 1 '!A13</f>
+        <v>Calandra, Paul</v>
+      </c>
+      <c r="B14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="str">
+        <f>'Bill 1 '!A14</f>
+        <v>Cho, Hon. Raymond Sung Joon</v>
+      </c>
+      <c r="B15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="str">
+        <f>'Bill 1 '!A15</f>
+        <v>Cho, Stan</v>
+      </c>
+      <c r="B16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="str">
+        <f>'Bill 1 '!A16</f>
+        <v>Clark, Hon. Steve</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="str">
+        <f>'Bill 1 '!A17</f>
+        <v>Coe, Lorne</v>
+      </c>
+      <c r="B18" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="str">
+        <f>'Bill 1 '!A18</f>
+        <v>Crawford, Stephen</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="str">
+        <f>'Bill 1 '!A19</f>
+        <v>Cuzzetto, Rudy</v>
+      </c>
+      <c r="B20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="str">
+        <f>'Bill 1 '!A20</f>
+        <v>Downey, Doug</v>
+      </c>
+      <c r="B21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="str">
+        <f>'Bill 1 '!A21</f>
+        <v>Dunlop, Jill</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="str">
+        <f>'Bill 1 '!A22</f>
+        <v>Elliott, Hon. Christine</v>
+      </c>
+      <c r="B23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="str">
+        <f>'Bill 1 '!A23</f>
+        <v>Fedeli, Hon. Victor</v>
+      </c>
+      <c r="B24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="str">
+        <f>'Bill 1 '!A24</f>
+        <v>Fee, Amy</v>
+      </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="str">
+        <f>'Bill 1 '!A25</f>
+        <v>Ford, Hon. Doug</v>
+      </c>
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="str">
+        <f>'Bill 1 '!A26</f>
+        <v>Fullerton, Hon. Merrilee</v>
+      </c>
+      <c r="B27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="str">
+        <f>'Bill 1 '!A27</f>
+        <v>Ghamari, Goldie</v>
+      </c>
+      <c r="B28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="str">
+        <f>'Bill 1 '!A28</f>
+        <v>Gill, Parm</v>
+      </c>
+      <c r="B29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="str">
+        <f>'Bill 1 '!A29</f>
+        <v>Hardeman, Hon. Ernie</v>
+      </c>
+      <c r="B30" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="str">
+        <f>'Bill 1 '!A30</f>
+        <v>Harris, Mike</v>
+      </c>
+      <c r="B31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="str">
+        <f>'Bill 1 '!A31</f>
+        <v>Hillier, Randy</v>
+      </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="str">
+        <f>'Bill 1 '!A32</f>
+        <v>Hogarth, Christine</v>
+      </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="str">
+        <f>'Bill 1 '!A33</f>
+        <v>Jones, Hon. Sylvia</v>
+      </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="str">
+        <f>'Bill 1 '!A34</f>
+        <v>Kanapathi, Logan</v>
+      </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="str">
+        <f>'Bill 1 '!A35</f>
+        <v>Karahalios, Belinda</v>
+      </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="str">
+        <f>'Bill 1 '!A36</f>
+        <v>Ke, Vincent</v>
+      </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="str">
+        <f>'Bill 1 '!A37</f>
+        <v>Khanjin, Andrea</v>
+      </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="str">
+        <f>'Bill 1 '!A38</f>
+        <v>Kramp, Daryl</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="str">
+        <f>'Bill 1 '!A39</f>
+        <v>Kusendova, Natalia</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="str">
+        <f>'Bill 1 '!A40</f>
+        <v>Lecce, Stephen</v>
+      </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="str">
+        <f>'Bill 1 '!A41</f>
+        <v>MacLeod, Hon. Lisa</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="str">
+        <f>'Bill 1 '!A42</f>
+        <v>Martin, Robin</v>
+      </c>
+      <c r="B43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="str">
+        <f>'Bill 1 '!A43</f>
+        <v>Martow, Gila</v>
+      </c>
+      <c r="B44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="str">
+        <f>'Bill 1 '!A44</f>
+        <v>McDonell, Jim</v>
+      </c>
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="str">
+        <f>'Bill 1 '!A45</f>
+        <v>McKenna, Jane</v>
+      </c>
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="str">
+        <f>'Bill 1 '!A46</f>
+        <v>McNaughton, Hon. Monte</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="str">
+        <f>'Bill 1 '!A47</f>
+        <v>Miller, Norman</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="str">
+        <f>'Bill 1 '!A48</f>
+        <v>Mitas, Christina Maria</v>
+      </c>
+      <c r="B49" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="str">
+        <f>'Bill 1 '!A49</f>
+        <v>Mulroney, Hon. Caroline</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="str">
+        <f>'Bill 1 '!A50</f>
+        <v>Nicholls, Rick</v>
+      </c>
+      <c r="B51" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="5" t="str">
+        <f>'Bill 1 '!A51</f>
+        <v>Oosterhoff, Sam</v>
+      </c>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="5" t="str">
+        <f>'Bill 1 '!A52</f>
+        <v>Pang, Billy</v>
+      </c>
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="str">
+        <f>'Bill 1 '!A53</f>
+        <v>Park, Lindsey</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="str">
+        <f>'Bill 1 '!A54</f>
+        <v>Parsa, Michael</v>
+      </c>
+      <c r="B55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="str">
+        <f>'Bill 1 '!A55</f>
+        <v>Pettapiece, Randy</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="str">
+        <f>'Bill 1 '!A56</f>
+        <v>Phillips, Hon. Rod</v>
+      </c>
+      <c r="B57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="str">
+        <f>'Bill 1 '!A57</f>
+        <v>Piccini, David</v>
+      </c>
+      <c r="B58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="str">
+        <f>'Bill 1 '!A58</f>
+        <v>Rasheed, Kaleed</v>
+      </c>
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="str">
+        <f>'Bill 1 '!A59</f>
+        <v>Rickford, Hon. Greg</v>
+      </c>
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="str">
+        <f>'Bill 1 '!A60</f>
+        <v>Roberts, Jeremy</v>
+      </c>
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="str">
+        <f>'Bill 1 '!A61</f>
+        <v>Romano, Ross</v>
+      </c>
+      <c r="B62" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="str">
+        <f>'Bill 1 '!A62</f>
+        <v>Sabawy, Sheref</v>
+      </c>
+      <c r="B63" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="str">
+        <f>'Bill 1 '!A63</f>
+        <v>Sandhu, Amarjot</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="str">
+        <f>'Bill 1 '!A64</f>
+        <v>Sarkaria, Prabmeet Singh</v>
+      </c>
+      <c r="B65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="str">
+        <f>'Bill 1 '!A65</f>
+        <v>Scott, Hon. Laurie</v>
+      </c>
+      <c r="B66" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="str">
+        <f>'Bill 1 '!A66</f>
+        <v>Simard, Amanda</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="str">
+        <f>'Bill 1 '!A67</f>
+        <v>Skelly, Donna</v>
+      </c>
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="str">
+        <f>'Bill 1 '!A68</f>
+        <v>Smith, Dave</v>
+      </c>
+      <c r="B69" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="str">
+        <f>'Bill 1 '!A69</f>
+        <v>Smith, Hon. Todd</v>
+      </c>
+      <c r="B70" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="str">
+        <f>'Bill 1 '!A70</f>
+        <v>Surma, Kinga</v>
+      </c>
+      <c r="B71" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="5" t="str">
+        <f>'Bill 1 '!A71</f>
+        <v>Tangri, Nina</v>
+      </c>
+      <c r="B72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="str">
+        <f>'Bill 1 '!A72</f>
+        <v>Thanigasalam, Vijay</v>
+      </c>
+      <c r="B73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="5" t="str">
+        <f>'Bill 1 '!A73</f>
+        <v>Thompson, Hon. Lisa M.</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="str">
+        <f>'Bill 1 '!A74</f>
+        <v>Tibollo, Hon. Michael A</v>
+      </c>
+      <c r="B75" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="str">
+        <f>'Bill 1 '!A75</f>
+        <v>Triantafilopoulos, Effie J.</v>
+      </c>
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="str">
+        <f>'Bill 1 '!A76</f>
+        <v>Wai, Daisy</v>
+      </c>
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="str">
+        <f>'Bill 1 '!A77</f>
+        <v>Walker, Bill</v>
+      </c>
+      <c r="B78" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="str">
+        <f>'Bill 1 '!A78</f>
+        <v>Wilson, Jim</v>
+      </c>
+      <c r="B79" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="str">
+        <f>'Bill 1 '!A79</f>
+        <v>Yakabuski, John</v>
+      </c>
+      <c r="B80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="str">
+        <f>'Bill 1 '!A80</f>
+        <v>Yurek, Jeff</v>
+      </c>
+      <c r="B81" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
+        <f>'Bill 1 '!A81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="str">
+        <f>'Bill 1 '!A82</f>
+        <v>Andrew, Jill</v>
+      </c>
+      <c r="B83" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="str">
+        <f>'Bill 1 '!A83</f>
+        <v>Armstrong, Teresa J</v>
+      </c>
+      <c r="B84" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="str">
+        <f>'Bill 1 '!A84</f>
+        <v>Arthur, Ian</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="str">
+        <f>'Bill 1 '!A85</f>
+        <v>Begum, Doly</v>
+      </c>
+      <c r="B86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="str">
+        <f>'Bill 1 '!A86</f>
+        <v>Bell, Jessica</v>
+      </c>
+      <c r="B87" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="str">
+        <f>'Bill 1 '!A87</f>
+        <v>Berns-McGown, Rima</v>
+      </c>
+      <c r="B88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="str">
+        <f>'Bill 1 '!A88</f>
+        <v>Bisson, Gilles</v>
+      </c>
+      <c r="B89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="str">
+        <f>'Bill 1 '!A89</f>
+        <v>Bourgouin, Guy</v>
+      </c>
+      <c r="B90" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="str">
+        <f>'Bill 1 '!A90</f>
+        <v>Burch, Jeff</v>
+      </c>
+      <c r="B91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="str">
+        <f>'Bill 1 '!A91</f>
+        <v>Fife, Catherine</v>
+      </c>
+      <c r="B92" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="5" t="str">
+        <f>'Bill 1 '!A92</f>
+        <v>French, Jennifer K.</v>
+      </c>
+      <c r="B93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="str">
+        <f>'Bill 1 '!A93</f>
+        <v>Gates, Wayne</v>
+      </c>
+      <c r="B94" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="str">
+        <f>'Bill 1 '!A94</f>
+        <v>Gélinas, France</v>
+      </c>
+      <c r="B95" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="str">
+        <f>'Bill 1 '!A95</f>
+        <v>Glover, Chris</v>
+      </c>
+      <c r="B96" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="str">
+        <f>'Bill 1 '!A96</f>
+        <v>Gretzky, Lisa</v>
+      </c>
+      <c r="B97" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="str">
+        <f>'Bill 1 '!A97</f>
+        <v>Harden, Joel</v>
+      </c>
+      <c r="B98" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="str">
+        <f>'Bill 1 '!A98</f>
+        <v>Hassan, Faisal</v>
+      </c>
+      <c r="B99" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="str">
+        <f>'Bill 1 '!A99</f>
+        <v>Hatfield, Percy</v>
+      </c>
+      <c r="B100" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="str">
+        <f>'Bill 1 '!A100</f>
+        <v>Horwath, Andrea</v>
+      </c>
+      <c r="B101" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="str">
+        <f>'Bill 1 '!A101</f>
+        <v>Karpoche, Bhutila</v>
+      </c>
+      <c r="B102" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="5" t="str">
+        <f>'Bill 1 '!A102</f>
+        <v>Kernaghan, Terence</v>
+      </c>
+      <c r="B103" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="5" t="str">
+        <f>'Bill 1 '!A103</f>
+        <v>Lindo, Laura Mae</v>
+      </c>
+      <c r="B104" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="5" t="str">
+        <f>'Bill 1 '!A104</f>
+        <v>Mamakwa, Sol</v>
+      </c>
+      <c r="B105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="5" t="str">
+        <f>'Bill 1 '!A105</f>
+        <v>Mantha, Michael</v>
+      </c>
+      <c r="B106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="5" t="str">
+        <f>'Bill 1 '!A106</f>
+        <v>Monteith-Farrell, Judith</v>
+      </c>
+      <c r="B107" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="5" t="str">
+        <f>'Bill 1 '!A107</f>
+        <v>Morrison, Suze</v>
+      </c>
+      <c r="B108" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="5" t="str">
+        <f>'Bill 1 '!A108</f>
+        <v>Natyshak, Taras</v>
+      </c>
+      <c r="B109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="5" t="str">
+        <f>'Bill 1 '!A109</f>
+        <v>Rakocevic, Tom</v>
+      </c>
+      <c r="B110" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="5" t="str">
+        <f>'Bill 1 '!A110</f>
+        <v>Sattler, Peggy</v>
+      </c>
+      <c r="B111" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="5" t="str">
+        <f>'Bill 1 '!A111</f>
+        <v>Shaw, Sandy</v>
+      </c>
+      <c r="B112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="5" t="str">
+        <f>'Bill 1 '!A112</f>
+        <v>Singh, Gurratan</v>
+      </c>
+      <c r="B113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="str">
+        <f>'Bill 1 '!A113</f>
+        <v>Singh, Sara</v>
+      </c>
+      <c r="B114" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="5" t="str">
+        <f>'Bill 1 '!A114</f>
+        <v>Stevens, Jennifer (Jennie)</v>
+      </c>
+      <c r="B115" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="5" t="str">
+        <f>'Bill 1 '!A115</f>
+        <v>Stiles, Marit</v>
+      </c>
+      <c r="B116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="5" t="str">
+        <f>'Bill 1 '!A116</f>
+        <v>Tabuns, Peter</v>
+      </c>
+      <c r="B117" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="5" t="str">
+        <f>'Bill 1 '!A117</f>
+        <v>Taylor, Monique</v>
+      </c>
+      <c r="B118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="5" t="str">
+        <f>'Bill 1 '!A118</f>
+        <v>Vanthof, John</v>
+      </c>
+      <c r="B119" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="5" t="str">
+        <f>'Bill 1 '!A119</f>
+        <v>West, Jamie</v>
+      </c>
+      <c r="B120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="5" t="str">
+        <f>'Bill 1 '!A120</f>
+        <v>Yarde, Kevin</v>
+      </c>
+      <c r="B121" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="5"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="5" t="str">
+        <f>'Bill 1 '!A122</f>
+        <v>Schreiner, Mike</v>
+      </c>
+      <c r="B123" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="5">
+        <f>'Bill 1 '!A123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="5" t="str">
+        <f>'Bill 1 '!A124</f>
+        <v>Coteau, Michael</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="5" t="str">
+        <f>'Bill 1 '!A125</f>
+        <v>Des Rosiers, Nathalie</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="5" t="str">
+        <f>'Bill 1 '!A126</f>
+        <v>Fraser, John</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="5" t="str">
+        <f>'Bill 1 '!A127</f>
+        <v>Gravelle, Michael</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" s="5" t="str">
+        <f>'Bill 1 '!A128</f>
+        <v>Hunter, Mitzi</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" s="5" t="str">
+        <f>'Bill 1 '!A129</f>
+        <v>Lalonde, Marie-France</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" s="5" t="str">
+        <f>'Bill 1 '!A130</f>
+        <v>Wynne, Kathleen</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" s="5">
+        <f>'Bill 1 '!A131</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" s="5">
+        <f>'Bill 1 '!A132</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" s="5">
+        <f>'Bill 1 '!A133</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" s="5">
+        <f>'Bill 1 '!A134</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" s="5">
+        <f>'Bill 1 '!A135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" s="5">
+        <f>'Bill 1 '!A136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" s="5">
+        <f>'Bill 1 '!A137</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" s="5">
+        <f>'Bill 1 '!A138</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" s="5">
+        <f>'Bill 1 '!A139</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" s="5">
+        <f>'Bill 1 '!A140</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" s="5">
+        <f>'Bill 1 '!A141</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" s="5">
+        <f>'Bill 1 '!A142</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" s="5">
+        <f>'Bill 1 '!A143</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" s="5">
+        <f>'Bill 1 '!A144</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" s="5">
+        <f>'Bill 1 '!A145</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" s="5">
+        <f>'Bill 1 '!A146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
+        <f>'Bill 1 '!A147</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -19134,7 +20136,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A13" sqref="A13"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19149,32 +20151,38 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -19553,7 +20561,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
@@ -19763,17 +20771,17 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
@@ -19783,12 +20791,12 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -19883,7 +20891,7 @@
   <dimension ref="A1:B130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19897,17 +20905,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>145</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -20287,7 +21300,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
@@ -20497,17 +21510,17 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
@@ -20517,12 +21530,12 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -20535,7 +21548,7 @@
   <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20552,58 +21565,58 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -20628,16 +21641,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -20713,7 +21726,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
         <v>117</v>
@@ -20747,7 +21760,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
         <v>117</v>
@@ -20764,7 +21777,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C14" t="s">
         <v>117</v>
@@ -20781,7 +21794,7 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
         <v>117</v>
@@ -20903,13 +21916,13 @@
         <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -20923,7 +21936,7 @@
         <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E23" t="s">
         <v>117</v>
@@ -20951,13 +21964,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C25" t="s">
         <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
         <v>117</v>
@@ -21053,16 +22066,16 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -21104,7 +22117,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C34" t="s">
         <v>117</v>
@@ -21342,7 +22355,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
         <v>117</v>
@@ -21495,7 +22508,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
         <v>117</v>
@@ -21515,7 +22528,7 @@
         <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D58" t="s">
         <v>117</v>
@@ -21532,13 +22545,13 @@
         <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E59" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -21614,7 +22627,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
         <v>117</v>
@@ -21631,7 +22644,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C65" t="s">
         <v>117</v>
@@ -21665,7 +22678,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
         <v>117</v>
@@ -21716,7 +22729,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s">
         <v>117</v>
@@ -21767,7 +22780,7 @@
         <v>70</v>
       </c>
       <c r="B73" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
         <v>117</v>
@@ -21784,7 +22797,7 @@
         <v>71</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C74" t="s">
         <v>117</v>
@@ -21804,13 +22817,13 @@
         <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D75" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E75" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
@@ -21858,7 +22871,7 @@
         <v>117</v>
       </c>
       <c r="D78" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E78" t="s">
         <v>117</v>
@@ -21883,7 +22896,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
         <v>117</v>
@@ -21906,7 +22919,7 @@
         <v>121</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D82" t="s">
         <v>121</v>
@@ -22022,7 +23035,7 @@
         <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C89" t="s">
         <v>121</v>
@@ -22042,13 +23055,13 @@
         <v>121</v>
       </c>
       <c r="C90" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D90" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E90" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
@@ -22144,13 +23157,13 @@
         <v>121</v>
       </c>
       <c r="C96" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D96" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E96" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -22167,7 +23180,7 @@
         <v>121</v>
       </c>
       <c r="E97" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -22198,10 +23211,10 @@
         <v>121</v>
       </c>
       <c r="D99" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E99" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -22226,16 +23239,16 @@
         <v>94</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C101" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D101" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E101" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
@@ -22243,7 +23256,7 @@
         <v>95</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C102" t="s">
         <v>121</v>
@@ -22308,13 +23321,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B106" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C106" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D106" t="s">
         <v>121</v>
@@ -22362,16 +23375,16 @@
         <v>101</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C109" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D109" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E109" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
@@ -22396,16 +23409,16 @@
         <v>103</v>
       </c>
       <c r="B111" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C111" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D111" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E111" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
@@ -22515,7 +23528,7 @@
         <v>110</v>
       </c>
       <c r="B118" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C118" t="s">
         <v>121</v>
@@ -22600,18 +23613,18 @@
         <v>122</v>
       </c>
       <c r="C125" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D125" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E125" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B126" t="s">
         <v>121</v>
@@ -22628,7 +23641,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B127" t="s">
         <v>121</v>
@@ -22645,19 +23658,19 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C128" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D128" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="E128" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
@@ -22679,13 +23692,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B130" t="s">
         <v>121</v>
       </c>
       <c r="C130" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="D130" t="s">
         <v>121</v>
@@ -22696,7 +23709,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B131" t="s">
         <v>121</v>
@@ -22742,22 +23755,22 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -23662,22 +24675,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -24553,22 +25566,22 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -25763,34 +26776,34 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
